--- a/data/trans_orig/P16A06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Habitat-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido pastillas para dormir en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1879,7 +1879,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (tasa de respuesta: 99,69%)</t>
+          <t>Población según si ha consumido pastillas para dormir en las dos últimas semanas en 2012 (tasa de respuesta: 99,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido pastillas para dormir en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4529,7 +4529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (tasa de respuesta: 99,9%)</t>
+          <t>Población según si ha consumido pastillas para dormir en las dos últimas semanas en 2023 (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>8604</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3878</v>
+        <v>4631</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15870</v>
+        <v>15874</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01241538709856181</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005596406949756172</v>
+        <v>0.006682180032088815</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02290039540972976</v>
+        <v>0.02290605211924174</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -765,19 +765,19 @@
         <v>11514</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6333</v>
+        <v>6688</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19442</v>
+        <v>19852</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01672664459916673</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00920079435541619</v>
+        <v>0.009715850109218507</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0282438498931453</v>
+        <v>0.02884051867541207</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -786,19 +786,19 @@
         <v>20118</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12605</v>
+        <v>13318</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30192</v>
+        <v>29661</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01456377042657651</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009124937077868033</v>
+        <v>0.0096414348740164</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02185684411068969</v>
+        <v>0.02147259474085465</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>684390</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>677124</v>
+        <v>677120</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>689116</v>
+        <v>688363</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9875846129014382</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9770996045902698</v>
+        <v>0.9770939478807583</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9944035930502438</v>
+        <v>0.9933178199679112</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>684</v>
@@ -836,19 +836,19 @@
         <v>676837</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>668909</v>
+        <v>668499</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>682018</v>
+        <v>681663</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9832733554008333</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9717561501068548</v>
+        <v>0.9711594813245881</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9907992056445843</v>
+        <v>0.9902841498907815</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1357</v>
@@ -857,19 +857,19 @@
         <v>1361227</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1351153</v>
+        <v>1351684</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1368740</v>
+        <v>1368027</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9854362295734235</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9781431558893099</v>
+        <v>0.9785274052591446</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9908750629221319</v>
+        <v>0.9903585651259836</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>15934</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9227</v>
+        <v>9488</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25654</v>
+        <v>25804</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01656651600924856</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009593920884918573</v>
+        <v>0.00986459856248984</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02667339255818267</v>
+        <v>0.02682897256141864</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -982,19 +982,19 @@
         <v>32013</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22110</v>
+        <v>21820</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45305</v>
+        <v>44240</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03305768057410281</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02283204717200279</v>
+        <v>0.0225317588434648</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04678378883557918</v>
+        <v>0.04568370351638482</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>44</v>
@@ -1003,19 +1003,19 @@
         <v>47947</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35822</v>
+        <v>35541</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62189</v>
+        <v>65172</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02484026312192082</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01855890950059957</v>
+        <v>0.01841333121831015</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03221891927968942</v>
+        <v>0.03376445618005831</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>945866</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>936146</v>
+        <v>935996</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>952573</v>
+        <v>952312</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9834334839907515</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9733266074418178</v>
+        <v>0.9731710274385816</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9904060791150815</v>
+        <v>0.9901354014375104</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>879</v>
@@ -1053,19 +1053,19 @@
         <v>936380</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>923088</v>
+        <v>924153</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>946283</v>
+        <v>946573</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9669423194258971</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9532162111644208</v>
+        <v>0.9543162964836153</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9771679528279972</v>
+        <v>0.9774682411565353</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1760</v>
@@ -1074,19 +1074,19 @@
         <v>1882246</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1868004</v>
+        <v>1865021</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1894371</v>
+        <v>1894652</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9751597368780792</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9677810807203105</v>
+        <v>0.9662355438199417</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9814410904994004</v>
+        <v>0.9815866687816899</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>12549</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6164</v>
+        <v>6202</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21864</v>
+        <v>21455</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01849546398716583</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00908456939053387</v>
+        <v>0.009141327632597064</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03222378823125739</v>
+        <v>0.03162041707308858</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -1199,19 +1199,19 @@
         <v>37602</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27745</v>
+        <v>26405</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49841</v>
+        <v>49618</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05498667533192655</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04057232705690159</v>
+        <v>0.03861247338793262</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0728846271720818</v>
+        <v>0.07255824776261752</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -1220,19 +1220,19 @@
         <v>50151</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38385</v>
+        <v>38534</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65490</v>
+        <v>66041</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03681248139962046</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0281754856090257</v>
+        <v>0.02828516421477217</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04807106138597549</v>
+        <v>0.04847589812234727</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>665960</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>656645</v>
+        <v>657054</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>672345</v>
+        <v>672307</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9815045360128342</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9677762117687425</v>
+        <v>0.9683795829269114</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.990915430609466</v>
+        <v>0.990858672367403</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>657</v>
@@ -1270,19 +1270,19 @@
         <v>646239</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>634000</v>
+        <v>634223</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>656096</v>
+        <v>657436</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9450133246680734</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.927115372827918</v>
+        <v>0.9274417522373825</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9594276729430984</v>
+        <v>0.9613875266120673</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1286</v>
@@ -1291,19 +1291,19 @@
         <v>1312199</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1296860</v>
+        <v>1296309</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1323965</v>
+        <v>1323816</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9631875186003795</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9519289386140246</v>
+        <v>0.9515241018776528</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9718245143909744</v>
+        <v>0.9717148357852279</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>27837</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19090</v>
+        <v>19370</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39105</v>
+        <v>38963</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02954377902757973</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02026057197759276</v>
+        <v>0.02055804244065953</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04150310288621919</v>
+        <v>0.04135262239935836</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -1416,19 +1416,19 @@
         <v>59543</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45766</v>
+        <v>46215</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>76172</v>
+        <v>77448</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05732975607664901</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04406464364486867</v>
+        <v>0.04449700520880432</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0733405511488283</v>
+        <v>0.07456857562673218</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>87</v>
@@ -1437,19 +1437,19 @@
         <v>87380</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>71106</v>
+        <v>71903</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>106689</v>
+        <v>106109</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04411281804305559</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03589704487242451</v>
+        <v>0.03629929416868014</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05386043946592905</v>
+        <v>0.05356796726510449</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>914385</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>903117</v>
+        <v>903259</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>923132</v>
+        <v>922852</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9704562209724202</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9584968971137807</v>
+        <v>0.9586473776006416</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9797394280224072</v>
+        <v>0.9794419575593404</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>941</v>
@@ -1487,19 +1487,19 @@
         <v>979069</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>962440</v>
+        <v>961164</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>992846</v>
+        <v>992397</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.942670243923351</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9266594488511725</v>
+        <v>0.9254314243732679</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9559353563551316</v>
+        <v>0.9555029947911957</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1904</v>
@@ -1508,19 +1508,19 @@
         <v>1893454</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1874145</v>
+        <v>1874725</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1909728</v>
+        <v>1908931</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9558871819569444</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9461395605340711</v>
+        <v>0.9464320327348957</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9641029551275755</v>
+        <v>0.9637007058313198</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>64924</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>49455</v>
+        <v>50388</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>81989</v>
+        <v>83489</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01982082335587168</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01509827393998887</v>
+        <v>0.01538313300508612</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02503087878076363</v>
+        <v>0.02548867461731896</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>136</v>
@@ -1633,19 +1633,19 @@
         <v>140672</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>118353</v>
+        <v>118885</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>167066</v>
+        <v>168979</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04162886767141676</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03502399801350245</v>
+        <v>0.03518141311012241</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04943968517215509</v>
+        <v>0.05000566053252023</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>203</v>
@@ -1654,19 +1654,19 @@
         <v>205596</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>177987</v>
+        <v>177602</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>235948</v>
+        <v>236220</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03089471638371498</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02674597882471792</v>
+        <v>0.02668818136083243</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03545576726012677</v>
+        <v>0.03549653458647305</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3210601</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3193536</v>
+        <v>3192036</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3226070</v>
+        <v>3225137</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9801791766441283</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9749691212192364</v>
+        <v>0.9745113253826811</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9849017260600111</v>
+        <v>0.9846168669949139</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3161</v>
@@ -1704,19 +1704,19 @@
         <v>3238525</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3212131</v>
+        <v>3210218</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3260844</v>
+        <v>3260312</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9583711323285833</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.950560314827845</v>
+        <v>0.9499943394674798</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.964976001986498</v>
+        <v>0.9648185868898776</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6307</v>
@@ -1725,19 +1725,19 @@
         <v>6449126</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6418774</v>
+        <v>6418502</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6476735</v>
+        <v>6477120</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.969105283616285</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9645442327398741</v>
+        <v>0.9645034654135275</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9732540211752821</v>
+        <v>0.9733118186391676</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>12716</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6985</v>
+        <v>6929</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20874</v>
+        <v>20782</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01812426594998837</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009956549385155498</v>
+        <v>0.00987680232679768</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02975343213404511</v>
+        <v>0.02962134304392657</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -2090,19 +2090,19 @@
         <v>33855</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23317</v>
+        <v>23092</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47689</v>
+        <v>46485</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0488997687594387</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03367882069819227</v>
+        <v>0.03335318469981044</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0688812442580625</v>
+        <v>0.06714173318127759</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>46</v>
@@ -2111,19 +2111,19 @@
         <v>46571</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34861</v>
+        <v>34658</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60429</v>
+        <v>60909</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03340999494559489</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02500973243364473</v>
+        <v>0.02486356826949946</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04335184248588986</v>
+        <v>0.04369607475531385</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>688863</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>680705</v>
+        <v>680797</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>694594</v>
+        <v>694650</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9818757340500116</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9702465678659549</v>
+        <v>0.9703786569560734</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9900434506148444</v>
+        <v>0.9901231976732023</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>613</v>
@@ -2161,19 +2161,19 @@
         <v>658482</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>644648</v>
+        <v>645852</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>669020</v>
+        <v>669245</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9511002312405613</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9311187557419376</v>
+        <v>0.9328582668187226</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9663211793018078</v>
+        <v>0.9666468153001897</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1272</v>
@@ -2182,19 +2182,19 @@
         <v>1347344</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1333486</v>
+        <v>1333006</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1359054</v>
+        <v>1359257</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9665900050544051</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9566481575141103</v>
+        <v>0.956303925244686</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9749902675663554</v>
+        <v>0.9751364317305005</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>10785</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5391</v>
+        <v>5522</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19505</v>
+        <v>20051</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01061651386390568</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005306616682688832</v>
+        <v>0.005435875865359976</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01919994631647725</v>
+        <v>0.01973747359465378</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>70</v>
@@ -2307,19 +2307,19 @@
         <v>78818</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>61890</v>
+        <v>61096</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>96932</v>
+        <v>97389</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07668767919869281</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06021768852952009</v>
+        <v>0.0594444353679333</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09431246265413627</v>
+        <v>0.09475688436537147</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>80</v>
@@ -2328,19 +2328,19 @@
         <v>89603</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>72378</v>
+        <v>71503</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>109455</v>
+        <v>111466</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0438442983541085</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03541565063128092</v>
+        <v>0.0349874922531971</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05355824064240332</v>
+        <v>0.05454211780216868</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>1005100</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>996380</v>
+        <v>995834</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1010494</v>
+        <v>1010363</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9893834861360943</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9808000536835226</v>
+        <v>0.9802625264053466</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9946933833173112</v>
+        <v>0.99456412413464</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>866</v>
@@ -2378,19 +2378,19 @@
         <v>948957</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>930843</v>
+        <v>930386</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>965885</v>
+        <v>966679</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9233123208013072</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9056875373458637</v>
+        <v>0.9052431156346287</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.93978231147048</v>
+        <v>0.9405555646320668</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1790</v>
@@ -2399,19 +2399,19 @@
         <v>1954058</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1934206</v>
+        <v>1932195</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1971283</v>
+        <v>1972158</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9561557016458915</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9464417593575967</v>
+        <v>0.9454578821978312</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9645843493687191</v>
+        <v>0.9650125077468026</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>18431</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10052</v>
+        <v>9399</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31665</v>
+        <v>32207</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0243627038623183</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01328726791381206</v>
+        <v>0.0124231792316753</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04185531690108061</v>
+        <v>0.04257163943087471</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -2524,19 +2524,19 @@
         <v>41907</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28810</v>
+        <v>29729</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56328</v>
+        <v>57424</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0539843036914597</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03711228048568333</v>
+        <v>0.03829649892365147</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07256070694004255</v>
+        <v>0.07397252201954015</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>50</v>
@@ -2545,19 +2545,19 @@
         <v>60338</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45502</v>
+        <v>45602</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80258</v>
+        <v>79005</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03936429429727718</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02968511946005998</v>
+        <v>0.02975066575570535</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05235936195466697</v>
+        <v>0.05154219479659838</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>738107</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>724873</v>
+        <v>724331</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>746486</v>
+        <v>747139</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9756372961376817</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9581446830989203</v>
+        <v>0.9574283605691247</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.986712732086188</v>
+        <v>0.9875768207683248</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>667</v>
@@ -2595,19 +2595,19 @@
         <v>734376</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>719955</v>
+        <v>718859</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>747473</v>
+        <v>746554</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9460156963085403</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9274392930599574</v>
+        <v>0.9260274779804598</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9628877195143166</v>
+        <v>0.9617035010763485</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1342</v>
@@ -2616,19 +2616,19 @@
         <v>1472483</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1452563</v>
+        <v>1453816</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1487319</v>
+        <v>1487219</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9606357057027228</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9476406380453329</v>
+        <v>0.9484578052034016</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9703148805399398</v>
+        <v>0.9702493342442946</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>28090</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17639</v>
+        <v>18633</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41692</v>
+        <v>42142</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02975802967145389</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01868640310933007</v>
+        <v>0.01973972085470405</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04416862457390935</v>
+        <v>0.04464500825995571</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -2741,19 +2741,19 @@
         <v>68379</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>53666</v>
+        <v>52719</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>87879</v>
+        <v>83927</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06519947142422983</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05117085154136677</v>
+        <v>0.05026736402697616</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08379335068404431</v>
+        <v>0.08002478878933894</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>89</v>
@@ -2762,19 +2762,19 @@
         <v>96469</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>79449</v>
+        <v>79740</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>118388</v>
+        <v>118279</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04841092874852587</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03987019436763403</v>
+        <v>0.04001608941321344</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05941075622151736</v>
+        <v>0.05935616405486104</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>915849</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>902247</v>
+        <v>901797</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>926300</v>
+        <v>925306</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9702419703285461</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9558313754260904</v>
+        <v>0.9553549917400442</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9813135968906695</v>
+        <v>0.9802602791452956</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>935</v>
@@ -2812,19 +2812,19 @@
         <v>980384</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>960884</v>
+        <v>964836</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>995097</v>
+        <v>996044</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9348005285757702</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9162066493159556</v>
+        <v>0.9199752112106609</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9488291484586331</v>
+        <v>0.9497326359730238</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1818</v>
@@ -2833,19 +2833,19 @@
         <v>1896234</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1874315</v>
+        <v>1874424</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1913254</v>
+        <v>1912963</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9515890712514741</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9405892437784826</v>
+        <v>0.940643835945139</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9601298056323661</v>
+        <v>0.9599839105867866</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>70022</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>53312</v>
+        <v>52727</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>90027</v>
+        <v>89844</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02048655542797477</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0155976375500699</v>
+        <v>0.01542652395770602</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02633954213424029</v>
+        <v>0.02628605011142104</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>205</v>
@@ -2958,19 +2958,19 @@
         <v>222959</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>192504</v>
+        <v>193161</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>253964</v>
+        <v>252715</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06289104615634736</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05430055052115479</v>
+        <v>0.05448585122677276</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07163675623897342</v>
+        <v>0.07128453491620509</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>265</v>
@@ -2979,19 +2979,19 @@
         <v>292981</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>259519</v>
+        <v>258574</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>328918</v>
+        <v>333981</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04207617140576082</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03727061587045739</v>
+        <v>0.03713493409252261</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04723736166820097</v>
+        <v>0.04796434267501914</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3347919</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3327914</v>
+        <v>3328097</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3364629</v>
+        <v>3365214</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9795134445720253</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9736604578657597</v>
+        <v>0.973713949888579</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9844023624499301</v>
+        <v>0.9845734760422939</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3081</v>
@@ -3029,19 +3029,19 @@
         <v>3322200</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3291195</v>
+        <v>3292444</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3352655</v>
+        <v>3351998</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9371089538436527</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9283632437610266</v>
+        <v>0.928715465083795</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9456994494788453</v>
+        <v>0.9455141487732274</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6222</v>
@@ -3050,19 +3050,19 @@
         <v>6670119</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6634182</v>
+        <v>6629119</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6703581</v>
+        <v>6704526</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9579238285942392</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.952762638331799</v>
+        <v>0.952035657324981</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9627293841295427</v>
+        <v>0.9628650659074777</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>16653</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9973</v>
+        <v>9668</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25972</v>
+        <v>25493</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02467884141359369</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01477909648272712</v>
+        <v>0.01432758988321376</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0384880298794234</v>
+        <v>0.03777868516930105</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>55</v>
@@ -3415,19 +3415,19 @@
         <v>57631</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43615</v>
+        <v>43564</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>73152</v>
+        <v>73756</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08565294673987432</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06482181963020088</v>
+        <v>0.06474635360677958</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1087207393965055</v>
+        <v>0.1096187125536108</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>72</v>
@@ -3436,19 +3436,19 @@
         <v>74284</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>58902</v>
+        <v>59794</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>94276</v>
+        <v>91794</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05512153118002511</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04370738652339336</v>
+        <v>0.04436943366889537</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06995664826792537</v>
+        <v>0.06811463394157145</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>658147</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>648828</v>
+        <v>649307</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>664827</v>
+        <v>665132</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9753211585864063</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9615119701205773</v>
+        <v>0.9622213148306984</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.985220903517273</v>
+        <v>0.985672410116786</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>611</v>
@@ -3486,19 +3486,19 @@
         <v>615208</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>599687</v>
+        <v>599083</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>629224</v>
+        <v>629275</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9143470532601257</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8912792606034945</v>
+        <v>0.8903812874463891</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9351781803697991</v>
+        <v>0.9352536463932204</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1246</v>
@@ -3507,19 +3507,19 @@
         <v>1273355</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1253363</v>
+        <v>1255845</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1288737</v>
+        <v>1287845</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9448784688199748</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9300433517320746</v>
+        <v>0.9318853660584285</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9562926134766067</v>
+        <v>0.9556305663311045</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>25344</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16508</v>
+        <v>16781</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37343</v>
+        <v>37067</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02478835156232385</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01614577656149873</v>
+        <v>0.01641308234007338</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03652360445025958</v>
+        <v>0.0362539200079017</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -3632,19 +3632,19 @@
         <v>59375</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46065</v>
+        <v>45188</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>76502</v>
+        <v>76929</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05693178988102059</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04416907348604026</v>
+        <v>0.04332842733174554</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07335403400344898</v>
+        <v>0.07376383713446101</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>77</v>
@@ -3653,19 +3653,19 @@
         <v>84719</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>67993</v>
+        <v>65834</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>105660</v>
+        <v>105333</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04101945391226236</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03292068021173661</v>
+        <v>0.03187561068727834</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05115842287903325</v>
+        <v>0.05100015647789157</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>997087</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>985088</v>
+        <v>985364</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1005923</v>
+        <v>1005650</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9752116484376762</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9634763955497402</v>
+        <v>0.9637460799920984</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9838542234385008</v>
+        <v>0.9835869176599263</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>923</v>
@@ -3703,19 +3703,19 @@
         <v>983538</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>966411</v>
+        <v>965984</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>996848</v>
+        <v>997725</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9430682101189795</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.926645965996551</v>
+        <v>0.9262361628655388</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9558309265139597</v>
+        <v>0.9566715726682544</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1851</v>
@@ -3724,19 +3724,19 @@
         <v>1980625</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1959684</v>
+        <v>1960011</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1997351</v>
+        <v>1999510</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9589805460877376</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9488415771209667</v>
+        <v>0.9489998435221084</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9670793197882634</v>
+        <v>0.9681243893127216</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>18326</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10360</v>
+        <v>10414</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28661</v>
+        <v>29030</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0241267965214313</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01363928383365228</v>
+        <v>0.01371095225409192</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03773436262146421</v>
+        <v>0.03821992336692902</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -3849,19 +3849,19 @@
         <v>55098</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42634</v>
+        <v>41069</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>71907</v>
+        <v>70943</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07018710031778208</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05431030587781663</v>
+        <v>0.05231697148843212</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09159987128039759</v>
+        <v>0.09037167153289426</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -3870,19 +3870,19 @@
         <v>73423</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57694</v>
+        <v>57423</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>92800</v>
+        <v>91417</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04753654841209878</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03735300180598317</v>
+        <v>0.03717718844791346</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06008140615186831</v>
+        <v>0.05918607734854831</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>741226</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>730891</v>
+        <v>730522</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>749192</v>
+        <v>749138</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9758732034785687</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9622656373785358</v>
+        <v>0.9617800766330709</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9863607161663475</v>
+        <v>0.986289047745908</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>687</v>
@@ -3920,19 +3920,19 @@
         <v>729913</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>713104</v>
+        <v>714068</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>742377</v>
+        <v>743942</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9298128996822179</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9084001287196026</v>
+        <v>0.9096283284671058</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9456896941221834</v>
+        <v>0.9476830285115679</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1366</v>
@@ -3941,19 +3941,19 @@
         <v>1471140</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1451763</v>
+        <v>1453146</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1486869</v>
+        <v>1487140</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9524634515879012</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.939918593848132</v>
+        <v>0.9408139226514525</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9626469981940171</v>
+        <v>0.9628228115520865</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>29701</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20750</v>
+        <v>20257</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41662</v>
+        <v>41799</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03167869546348855</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02213161180962405</v>
+        <v>0.02160616264967602</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04443604669883953</v>
+        <v>0.0445827688014484</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>81</v>
@@ -4066,19 +4066,19 @@
         <v>94378</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>75889</v>
+        <v>74468</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>117261</v>
+        <v>116447</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09041958813547744</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07270612093150541</v>
+        <v>0.07134422950570853</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1123431341330374</v>
+        <v>0.1115625135743548</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>110</v>
@@ -4087,19 +4087,19 @@
         <v>124079</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>104108</v>
+        <v>100351</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>150817</v>
+        <v>146019</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06262357363799799</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05254414144061809</v>
+        <v>0.05064789773272194</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07611824111456272</v>
+        <v>0.07369698092440642</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>907866</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>895905</v>
+        <v>895768</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>916817</v>
+        <v>917310</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9683213045365114</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9555639533011608</v>
+        <v>0.9554172311985514</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9778683881903761</v>
+        <v>0.9783938373503239</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>878</v>
@@ -4137,19 +4137,19 @@
         <v>949401</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>926518</v>
+        <v>927332</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>967890</v>
+        <v>969311</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9095804118645225</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8876568658669626</v>
+        <v>0.8884374864256452</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9272938790684946</v>
+        <v>0.9286557704942914</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1781</v>
@@ -4158,19 +4158,19 @@
         <v>1857267</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1830529</v>
+        <v>1835327</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1877238</v>
+        <v>1880995</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.937376426362002</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9238817588854369</v>
+        <v>0.9263030190755936</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9474558585593819</v>
+        <v>0.9493521022672781</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>90024</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>70498</v>
+        <v>71484</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>112129</v>
+        <v>110642</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02652175419494341</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02076918078736823</v>
+        <v>0.02105974645087524</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03303403484778396</v>
+        <v>0.03259583594031968</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>239</v>
@@ -4283,19 +4283,19 @@
         <v>266481</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>235552</v>
+        <v>236289</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>301596</v>
+        <v>302391</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07518073133574005</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06645476528252289</v>
+        <v>0.06666273048603999</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08508730626791236</v>
+        <v>0.08531159529380468</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>325</v>
@@ -4304,19 +4304,19 @@
         <v>356505</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>320586</v>
+        <v>318924</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>396340</v>
+        <v>394572</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05137785220015152</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04620125524850467</v>
+        <v>0.04596183005750792</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05711860189978623</v>
+        <v>0.05686388005200057</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3304326</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3282221</v>
+        <v>3283708</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3323852</v>
+        <v>3322866</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9734782458050566</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9669659651522162</v>
+        <v>0.9674041640596804</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9792308192126321</v>
+        <v>0.9789402535491248</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3099</v>
@@ -4354,19 +4354,19 @@
         <v>3278061</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3242946</v>
+        <v>3242151</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3308990</v>
+        <v>3308253</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9248192686642599</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9149126937320875</v>
+        <v>0.9146884047061952</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9335452347174771</v>
+        <v>0.93333726951396</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6244</v>
@@ -4375,19 +4375,19 @@
         <v>6582387</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6542552</v>
+        <v>6544320</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6618306</v>
+        <v>6619968</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9486221477998484</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9428813981002135</v>
+        <v>0.9431361199479994</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9537987447514951</v>
+        <v>0.9540381699424921</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>44846</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33550</v>
+        <v>33424</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59001</v>
+        <v>60887</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06497355195750171</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04860817206255286</v>
+        <v>0.04842554563978074</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08548154609770828</v>
+        <v>0.08821490308797626</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>180</v>
@@ -4740,19 +4740,19 @@
         <v>88298</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>75604</v>
+        <v>75800</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>101238</v>
+        <v>103780</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1204968008552345</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1031744264389024</v>
+        <v>0.1034419747291678</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1381557191298442</v>
+        <v>0.1416246849040627</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>238</v>
@@ -4761,19 +4761,19 @@
         <v>133144</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>115890</v>
+        <v>116043</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>151953</v>
+        <v>153593</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09356563537328748</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08144096693688051</v>
+        <v>0.08154796391393697</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1067835467291855</v>
+        <v>0.1079365467337512</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>645369</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>631214</v>
+        <v>629328</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>656665</v>
+        <v>656791</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9350264480424983</v>
+        <v>0.9350264480424981</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9145184539022917</v>
+        <v>0.911785096912024</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.951391827937447</v>
+        <v>0.9515744543602194</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1058</v>
@@ -4811,19 +4811,19 @@
         <v>644484</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>631544</v>
+        <v>629002</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>657178</v>
+        <v>656982</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8795031991447657</v>
+        <v>0.8795031991447655</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8618442808701557</v>
+        <v>0.8583753150959375</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8968255735610977</v>
+        <v>0.8965580252708323</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1729</v>
@@ -4832,19 +4832,19 @@
         <v>1289853</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1271044</v>
+        <v>1269404</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1307107</v>
+        <v>1306954</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9064343646267127</v>
+        <v>0.9064343646267126</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8932164532708151</v>
+        <v>0.8920634532662489</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9185590330631196</v>
+        <v>0.9184520360860631</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>40091</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30070</v>
+        <v>29215</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53355</v>
+        <v>53867</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0382208767208272</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02866734596670798</v>
+        <v>0.02785227587920361</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05086652417207815</v>
+        <v>0.05135485326114826</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>166</v>
@@ -4957,19 +4957,19 @@
         <v>99460</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>85746</v>
+        <v>84973</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>117971</v>
+        <v>117000</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09294254783405029</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08012673699513807</v>
+        <v>0.07940493433625886</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1102404393209143</v>
+        <v>0.1093330737743186</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>217</v>
@@ -4978,19 +4978,19 @@
         <v>139551</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>120927</v>
+        <v>120306</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>162807</v>
+        <v>161190</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.06585552976454173</v>
+        <v>0.06585552976454172</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05706688259787387</v>
+        <v>0.05677380913291996</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0768305036709909</v>
+        <v>0.07606743375550834</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>1008826</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>995562</v>
+        <v>995050</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1018847</v>
+        <v>1019702</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9617791232791729</v>
+        <v>0.9617791232791728</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9491334758279218</v>
+        <v>0.9486451467388517</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9713326540332921</v>
+        <v>0.9721477241207964</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1349</v>
@@ -5028,19 +5028,19 @@
         <v>970664</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>952153</v>
+        <v>953124</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>984378</v>
+        <v>985151</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9070574521659497</v>
+        <v>0.9070574521659498</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8897595606790857</v>
+        <v>0.8906669262256816</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9198732630048621</v>
+        <v>0.9205950656637412</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2262</v>
@@ -5049,19 +5049,19 @@
         <v>1979490</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1956234</v>
+        <v>1957851</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1998114</v>
+        <v>1998735</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9341444702354584</v>
+        <v>0.9341444702354581</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.923169496329009</v>
+        <v>0.9239325662444916</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9429331174021262</v>
+        <v>0.9432261908670801</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>39507</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28603</v>
+        <v>28904</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53977</v>
+        <v>54707</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.04925591507379165</v>
+        <v>0.04925591507379164</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03566048050281431</v>
+        <v>0.03603663528057046</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06729619562506282</v>
+        <v>0.06820543772430426</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>105</v>
@@ -5174,19 +5174,19 @@
         <v>72697</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>58418</v>
+        <v>59880</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>86882</v>
+        <v>87076</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.08964428285536249</v>
+        <v>0.08964428285536252</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07203621186466524</v>
+        <v>0.07383864322376218</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1071349346654703</v>
+        <v>0.1073750736009946</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>147</v>
@@ -5195,19 +5195,19 @@
         <v>112205</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>94346</v>
+        <v>93596</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>130626</v>
+        <v>131431</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06956112858585353</v>
+        <v>0.06956112858585352</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05848972075526599</v>
+        <v>0.05802453513685704</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08098148228119675</v>
+        <v>0.08148058998232549</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>762579</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>748109</v>
+        <v>747379</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>773483</v>
+        <v>773182</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9507440849262082</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9327038043749372</v>
+        <v>0.9317945622756957</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9643395194971855</v>
+        <v>0.9639633647194296</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>940</v>
@@ -5245,19 +5245,19 @@
         <v>738257</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>724072</v>
+        <v>723878</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>752536</v>
+        <v>751074</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9103557171446375</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8928650653345299</v>
+        <v>0.8926249263990054</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9279637881353349</v>
+        <v>0.9261613567762378</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1573</v>
@@ -5266,19 +5266,19 @@
         <v>1500835</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1482414</v>
+        <v>1481609</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1518694</v>
+        <v>1519444</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9304388714141465</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9190185177188031</v>
+        <v>0.9185194100176743</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.941510279244734</v>
+        <v>0.9419754648631431</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>57328</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45288</v>
+        <v>44845</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>73682</v>
+        <v>72482</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05790311502753832</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04574250397650637</v>
+        <v>0.04529541382944961</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07442192318874712</v>
+        <v>0.07320971740917123</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>203</v>
@@ -5391,19 +5391,19 @@
         <v>126774</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>111242</v>
+        <v>109616</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>144570</v>
+        <v>145177</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1134919258460291</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09958732343002871</v>
+        <v>0.09813157740954803</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1294236977750258</v>
+        <v>0.1299671644001874</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>273</v>
@@ -5412,19 +5412,19 @@
         <v>184102</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>162085</v>
+        <v>160869</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>208307</v>
+        <v>206418</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08737234584444387</v>
+        <v>0.08737234584444391</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07692358098534002</v>
+        <v>0.07634631952051583</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09885989859305062</v>
+        <v>0.09796332536244869</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>932734</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>916380</v>
+        <v>917580</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>944774</v>
+        <v>945217</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9420968849724617</v>
+        <v>0.9420968849724618</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9255780768112528</v>
+        <v>0.926790282590829</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9542574960234932</v>
+        <v>0.9547045861705504</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1356</v>
@@ -5462,19 +5462,19 @@
         <v>990257</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>972461</v>
+        <v>971854</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1005789</v>
+        <v>1007415</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8865080741539708</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8705763022249743</v>
+        <v>0.8700328355998127</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9004126765699711</v>
+        <v>0.9018684225904519</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2292</v>
@@ -5483,19 +5483,19 @@
         <v>1922991</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1898786</v>
+        <v>1900675</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1945008</v>
+        <v>1946224</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9126276541555561</v>
+        <v>0.9126276541555562</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9011401014069496</v>
+        <v>0.9020366746375511</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.92307641901466</v>
+        <v>0.9236536804794839</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>181771</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>157528</v>
+        <v>157246</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>210145</v>
+        <v>208480</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05147464840137173</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0446093266404025</v>
+        <v>0.04452955782502468</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05950962741388288</v>
+        <v>0.05903809616286451</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>654</v>
@@ -5608,19 +5608,19 @@
         <v>387229</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>358746</v>
+        <v>359712</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>421303</v>
+        <v>418812</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1037900395518137</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09615546920544037</v>
+        <v>0.09641463198344308</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1129229198503146</v>
+        <v>0.1122552625935198</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>875</v>
@@ -5629,19 +5629,19 @@
         <v>569001</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>530813</v>
+        <v>531726</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>607422</v>
+        <v>610826</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07835132561148776</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07309293661485501</v>
+        <v>0.07321867437972497</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08364195866866291</v>
+        <v>0.08411068898913487</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3349509</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3321135</v>
+        <v>3322800</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3373752</v>
+        <v>3374034</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9485253515986284</v>
+        <v>0.9485253515986282</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.940490372586117</v>
+        <v>0.9409619038371352</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9553906733595974</v>
+        <v>0.9554704421749753</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4703</v>
@@ -5679,19 +5679,19 @@
         <v>3343662</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3309588</v>
+        <v>3312079</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3372145</v>
+        <v>3371179</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8962099604481862</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8870770801496853</v>
+        <v>0.8877447374064799</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9038445307945595</v>
+        <v>0.903585368016557</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7856</v>
@@ -5700,19 +5700,19 @@
         <v>6693169</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6654748</v>
+        <v>6651344</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6731357</v>
+        <v>6730444</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9216486743885123</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9163580413313372</v>
+        <v>0.9158893110108651</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9269070633851452</v>
+        <v>0.9267813256202749</v>
       </c>
     </row>
     <row r="18">
